--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -627,7 +627,7 @@
         <v>304.93</v>
       </c>
       <c r="I2">
-        <v>4.229999999999999</v>
+        <v>4.23</v>
       </c>
       <c r="J2">
         <v>488.54</v>
@@ -710,7 +710,7 @@
         <v>476.97</v>
       </c>
       <c r="I3">
-        <v>4.229999999999999</v>
+        <v>4.23</v>
       </c>
       <c r="J3">
         <v>1123.51</v>
@@ -793,7 +793,7 @@
         <v>577.24</v>
       </c>
       <c r="I4">
-        <v>4.229999999999999</v>
+        <v>4.23</v>
       </c>
       <c r="J4">
         <v>1322.59</v>
@@ -876,7 +876,7 @@
         <v>746.92</v>
       </c>
       <c r="I5">
-        <v>4.229999999999999</v>
+        <v>4.23</v>
       </c>
       <c r="J5">
         <v>1621.35</v>
@@ -959,7 +959,7 @@
         <v>492.39</v>
       </c>
       <c r="I6">
-        <v>4.229999999999999</v>
+        <v>4.23</v>
       </c>
       <c r="J6">
         <v>1874.1</v>
@@ -1122,7 +1122,7 @@
         <v>274.79</v>
       </c>
       <c r="H8">
-        <v>3533.301428571428</v>
+        <v>3533.3</v>
       </c>
       <c r="I8">
         <v>-109.48</v>
@@ -1205,7 +1205,7 @@
         <v>180.51</v>
       </c>
       <c r="H9">
-        <v>3533.301428571428</v>
+        <v>3533.3</v>
       </c>
       <c r="I9">
         <v>25.85</v>
@@ -1288,7 +1288,7 @@
         <v>251.66</v>
       </c>
       <c r="H10">
-        <v>3533.301428571428</v>
+        <v>3533.3</v>
       </c>
       <c r="I10">
         <v>7.83</v>
@@ -1371,7 +1371,7 @@
         <v>345.37</v>
       </c>
       <c r="H11">
-        <v>3533.301428571428</v>
+        <v>3533.3</v>
       </c>
       <c r="I11">
         <v>64.75</v>
@@ -1454,7 +1454,7 @@
         <v>363.76</v>
       </c>
       <c r="H12">
-        <v>3533.301428571428</v>
+        <v>3533.3</v>
       </c>
       <c r="I12">
         <v>-66.23</v>
@@ -1537,7 +1537,7 @@
         <v>162.66</v>
       </c>
       <c r="H13">
-        <v>3533.301428571428</v>
+        <v>3533.3</v>
       </c>
       <c r="I13">
         <v>-46.79</v>
@@ -1591,7 +1591,7 @@
         <v>2697.59</v>
       </c>
       <c r="Z13">
-        <v>156.4721428571429</v>
+        <v>156.47</v>
       </c>
       <c r="AA13">
         <v>800</v>
@@ -1674,7 +1674,7 @@
         <v>4069</v>
       </c>
       <c r="Z14">
-        <v>156.4721428571429</v>
+        <v>156.47</v>
       </c>
       <c r="AA14">
         <v>1200</v>
@@ -2006,7 +2006,7 @@
         <v>3257</v>
       </c>
       <c r="Z18">
-        <v>156.4721428571429</v>
+        <v>156.47</v>
       </c>
       <c r="AA18">
         <v>500</v>
@@ -2089,7 +2089,7 @@
         <v>11391</v>
       </c>
       <c r="Z19">
-        <v>156.4721428571429</v>
+        <v>156.47</v>
       </c>
       <c r="AA19">
         <v>2100</v>
@@ -2172,7 +2172,7 @@
         <v>12995</v>
       </c>
       <c r="Z20">
-        <v>156.4721428571429</v>
+        <v>156.47</v>
       </c>
       <c r="AA20">
         <v>2400</v>
@@ -2255,7 +2255,7 @@
         <v>14080</v>
       </c>
       <c r="Z21">
-        <v>156.4721428571429</v>
+        <v>156.47</v>
       </c>
       <c r="AA21">
         <v>2600</v>
